--- a/biology/Médecine/Ministères_sociaux/Ministères_sociaux.xlsx
+++ b/biology/Médecine/Ministères_sociaux/Ministères_sociaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En France, les ministères sociaux désignent les ministères chargés des affaires sociales et regroupent le ministère du Travail, le ministère de la Santé, et le ministère des Solidarités sous leurs diverses dénominations en fonction des gouvernements.
-L'État prévoit de regrouper à Malakoff les services administratifs des ministères sociaux à partir de 2026 sur un second grand site qui doit venir compléter l’implantation domaniale principale de l’administration centrale du 14, avenue Duquesne à Paris[1].
+L'État prévoit de regrouper à Malakoff les services administratifs des ministères sociaux à partir de 2026 sur un second grand site qui doit venir compléter l’implantation domaniale principale de l’administration centrale du 14, avenue Duquesne à Paris.
 Ces trois ministères sont réunis dans le portefeuille de Catherine Vautrin au sein du Gouvernement Attal.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère du Travail est créé en 1906. Il regroupe la direction du Travail et la direction de l’Assurance et de la Prévoyance sociale, alors rattachées au ministère du Commerce, ainsi que celle de la Mutualité, supervisée par le ministère de l’Intérieur.
 L'origine du ministère de la Santé remonte au ministère de l'Hygiène, de l'Assistance et de la Prévoyance sociale créé le 13 juillet 1920, à partir de la direction de l'Assistance et de l'Hygiène publique qui dépendait alors du ministère de l'Intérieur et de la direction de la Prévoyance sociale rattachée au ministère du Travail. Le ministère de la Santé publique est créé à partir de ce dernier par la loi du 4 avril 1930.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Ministère du Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère du Travail, du Plein emploi et de l'Insertion est l’administration française chargée de la politique du Gouvernement dans les domaines du travail, de l'emploi, de l'insertion professionnelle et économique, notamment l'insertion par l'activité économique, de l'apprentissage, de la formation professionnelle, du dialogue social et de la prévention des accidents du travail et des maladies professionnelles, ainsi que de l'assurance vieillesse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère du Travail, du Plein emploi et de l'Insertion est l’administration française chargée de la politique du Gouvernement dans les domaines du travail, de l'emploi, de l'insertion professionnelle et économique, notamment l'insertion par l'activité économique, de l'apprentissage, de la formation professionnelle, du dialogue social et de la prévention des accidents du travail et des maladies professionnelles, ainsi que de l'assurance vieillesse.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Ministère de la Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé est l’administration française chargée de la politique du Gouvernement dans les domaines de la santé publique et de l'organisation du système de santé.
-Il met également en œuvre la politique du Gouvernement dans le domaine de la protection sociale, en lien avec le ministère de l'Économie et des Finances, le ministère du Travail et le ministère des Solidarités[3].
+Il met également en œuvre la politique du Gouvernement dans le domaine de la protection sociale, en lien avec le ministère de l'Économie et des Finances, le ministère du Travail et le ministère des Solidarités.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Ministère des Solidarités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ministère des Solidarités, de l'Autonomie et des Personnes Handicapées est l’administration française chargé de mettre en œuvre la politique du Gouvernement dans les domaines de la solidarité, de la cohésion sociale, de l'autonomie et du handicap[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ministère des Solidarités, de l'Autonomie et des Personnes Handicapées est l’administration française chargé de mettre en œuvre la politique du Gouvernement dans les domaines de la solidarité, de la cohésion sociale, de l'autonomie et du handicap.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Minist%C3%A8res_sociaux</t>
+          <t>Ministères_sociaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,11 +663,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributions
-Les ministères sociaux préparent et mettent en œuvre la politique du gouvernement français dans les domaines du travail, des relations sociales, de la prévention des accidents du travail et des maladies professionnelles, de l’emploi, de la formation professionnelle, de la santé publique, de l’organisation du système de soins, des solidarités et de la cohésion sociale.
-Secrétariat général des ministères sociaux
-Le secrétariat général des ministères chargés des affaires sociales (SGMAS), parfois simplement appelé secrétariat général des ministères sociaux, assiste les ministres chargés de l'action sociale, de la sécurité sociale, de la santé, du travail, de l'emploi et de la formation professionnelle[5].
-En 2023, il est placé sous l'autorité conjointe du ministre du Travail, du Plein emploi et de l'Insertion, du ministre de la Santé et de la Prévention[6] et du ministre des Solidarités, de l'Autonomie et des Personnes handicapées.
+          <t>Attributions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ministères sociaux préparent et mettent en œuvre la politique du gouvernement français dans les domaines du travail, des relations sociales, de la prévention des accidents du travail et des maladies professionnelles, de l’emploi, de la formation professionnelle, de la santé publique, de l’organisation du système de soins, des solidarités et de la cohésion sociale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ministères_sociaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8res_sociaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Secrétariat général des ministères sociaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le secrétariat général des ministères chargés des affaires sociales (SGMAS), parfois simplement appelé secrétariat général des ministères sociaux, assiste les ministres chargés de l'action sociale, de la sécurité sociale, de la santé, du travail, de l'emploi et de la formation professionnelle.
+En 2023, il est placé sous l'autorité conjointe du ministre du Travail, du Plein emploi et de l'Insertion, du ministre de la Santé et de la Prévention et du ministre des Solidarités, de l'Autonomie et des Personnes handicapées.
 </t>
         </is>
       </c>
